--- a/medicine/Médecine vétérinaire/Liste_d'aliments_toxiques_pour_les_chats/Liste_d'aliments_toxiques_pour_les_chats.xlsx
+++ b/medicine/Médecine vétérinaire/Liste_d'aliments_toxiques_pour_les_chats/Liste_d'aliments_toxiques_pour_les_chats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27aliments_toxiques_pour_les_chats</t>
+          <t>Liste_d'aliments_toxiques_pour_les_chats</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente une liste d'aliments toxiques pour les chats.
 Pour les substances toxiques pour les chats, voir la liste correspondante.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27aliments_toxiques_pour_les_chats</t>
+          <t>Liste_d'aliments_toxiques_pour_les_chats</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,30 +526,273 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-abricot
-ail[1]
-alcool[2]
-avocat[2]
-C
-caféine[1]
-carambole[3]
-champignons (selon les espèces)[4]
-chocolat (en raison de la présence de théobromine)[2]
-K
-kaki
-N
-noix de macadamia[5]
-O
-oignon[2]
-P
-pomme de terre crue ou verte[6]
-R
-raisin[1]
-rhubarbe[7]
-T
-thé[1],[2]
-tomate[8]</t>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>abricot
+ail
+alcool
+avocat</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>caféine
+carambole
+champignons (selon les espèces)
+chocolat (en raison de la présence de théobromine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>kaki</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>noix de macadamia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>oignon</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>pomme de terre crue ou verte</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>raisin
+rhubarbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chats</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>thé,
+tomate</t>
         </is>
       </c>
     </row>
